--- a/ocms/src/test/resources/DownloadedFiles/Organizational Structure (2).xlsx
+++ b/ocms/src/test/resources/DownloadedFiles/Organizational Structure (2).xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="56">
   <si>
     <t xml:space="preserve">Level Hierarchy</t>
   </si>
@@ -79,13 +79,22 @@
     <t xml:space="preserve">01/10/2019 17:00:31</t>
   </si>
   <si>
+    <t xml:space="preserve">OCM Product</t>
+  </si>
+  <si>
+    <t xml:space="preserve">America&gt;OCM Product</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05/11/2019 12:20:17</t>
+  </si>
+  <si>
     <t xml:space="preserve">Oceania</t>
   </si>
   <si>
     <t xml:space="preserve">NewZealand&gt;Oceania</t>
   </si>
   <si>
-    <t xml:space="preserve">04/11/2019 17:01:28</t>
+    <t xml:space="preserve">06/11/2019 16:01:28</t>
   </si>
   <si>
     <t xml:space="preserve">North</t>
@@ -100,7 +109,7 @@
     <t xml:space="preserve">NewZealand</t>
   </si>
   <si>
-    <t xml:space="preserve">04/11/2019 17:01:13</t>
+    <t xml:space="preserve">06/11/2019 16:01:13</t>
   </si>
   <si>
     <t xml:space="preserve">Department</t>
@@ -130,7 +139,7 @@
     <t xml:space="preserve">NewZealand&gt;Oceania&gt;IT Department</t>
   </si>
   <si>
-    <t xml:space="preserve">04/11/2019 17:01:42</t>
+    <t xml:space="preserve">06/11/2019 16:01:47</t>
   </si>
   <si>
     <t xml:space="preserve">India</t>
@@ -170,6 +179,12 @@
   </si>
   <si>
     <t xml:space="preserve">01/10/2019 17:00:10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">America</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05/11/2019 11:56:50</t>
   </si>
 </sst>
 </file>
@@ -237,7 +252,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A16"/>
+  <dimension ref="A1:A18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane state="frozen" ySplit="1" topLeftCell="A2"/>
@@ -373,41 +388,41 @@
     </row>
     <row r="8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>8</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
       </c>
       <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="D9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
         <v>32</v>
@@ -424,7 +439,7 @@
     </row>
     <row r="11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
         <v>35</v>
@@ -441,27 +456,27 @@
     </row>
     <row r="12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
         <v>38</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D12" t="s">
         <v>8</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
         <v>41</v>
@@ -475,27 +490,27 @@
     </row>
     <row r="14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B14" t="s">
         <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D14" t="s">
         <v>8</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C15" t="s">
         <v>46</v>
@@ -509,7 +524,7 @@
     </row>
     <row r="16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
         <v>48</v>
@@ -522,6 +537,40 @@
       </c>
       <c r="E16" s="2" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="17" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/ocms/src/test/resources/DownloadedFiles/Organizational Structure (2).xlsx
+++ b/ocms/src/test/resources/DownloadedFiles/Organizational Structure (2).xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="106">
   <si>
     <t xml:space="preserve">Level Hierarchy</t>
   </si>
@@ -34,124 +34,190 @@
     <t xml:space="preserve">Last Changed On</t>
   </si>
   <si>
+    <t xml:space="preserve">Department</t>
+  </si>
+  <si>
+    <t xml:space="preserve">accounts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TH&gt;Digi&gt;accounts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IndiaTetherfi\Anitha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18/07/2018 18:35:22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Team</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AustriaTeam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Autria&gt;Div2&gt;Depart&gt;AustriaTeam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IndiaTetherfi\chetan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17/09/2018 14:31:23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Country</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Autria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17/09/2018 14:23:23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17/09/2018 15:22:40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CreditTeam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TH&gt;Digi&gt;accounts&gt;CreditTeam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IndiaTetherfi\Akshith</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29/08/2018 15:36:48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dep1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">India&gt;DivisionIndia2&gt;Dep1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">indiatetherfi\administrator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22/07/2019 15:49:34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dep2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">India&gt;DivisionIndia2&gt;Dep2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22/07/2019 15:49:53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Depart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Autria&gt;Div2&gt;Depart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17/09/2018 14:30:13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DepIndia1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">India&gt;DivisionIndia1&gt;DepIndia1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22/07/2019 15:48:06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DepIndia2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">India&gt;DivisionIndia1&gt;DepIndia2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22/07/2019 15:48:29</t>
+  </si>
+  <si>
     <t xml:space="preserve">Division</t>
   </si>
   <si>
-    <t xml:space="preserve">Washing Tone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amereica&gt;Washing Tone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">qatetherfi\administrator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31/01/2020 15:15:45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tokiyo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Japan&gt;Tokiyo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30/01/2020 16:58:40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Team</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TDMSupport</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Singapore&gt;SingtelTDM&gt;CallCentre&gt;TDMSupport</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31/01/2020 15:15:30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South</t>
-  </si>
-  <si>
-    <t xml:space="preserve">India&gt;South</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bengteth\administrator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01/10/2019 16:59:45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SingtelTDM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Singapore&gt;SingtelTDM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31/01/2020 15:15:16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Country</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Singapore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01/10/2019 16:54:39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Department</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Samsung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dell&gt;HP&gt;Samsung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28/02/2020 12:16:41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Report</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Japan&gt;Tokiyo&gt;News&gt;Report</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05/02/2020 14:15:18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ProjectQA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">India&gt;South&gt;Mangalore&gt;ProjectQA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02/10/2019 09:52:11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ProductQA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">India&gt;South&gt;Bangalore&gt;ProductQA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01/10/2019 17:00:31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phillips</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dell&gt;HP&gt;Samsung&gt;Phillips</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12/03/2020 15:46:54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Philli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07/01/2020 17:27:04</t>
+    <t xml:space="preserve">Digi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TH&gt;Digi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18/07/2018 18:35:03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CON&gt;DIV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17/09/2018 15:23:32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Div2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Autria&gt;Div2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17/09/2018 14:29:47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DivisionIndia1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">India&gt;DivisionIndia1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22/07/2019 15:46:31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DivisionIndia2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">India&gt;DivisionIndia2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22/07/2019 15:46:55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">divlast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TH&gt;divlast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">indiatetherfi\meghna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07/08/2019 15:55:13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">India</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22/07/2019 15:43:31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IT Department</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NewZealand&gt;Oceania&gt;IT Department</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27/04/2020 17:54:45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NewZealand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27/04/2020 17:53:40</t>
   </si>
   <si>
     <t xml:space="preserve">Oceania</t>
@@ -160,160 +226,115 @@
     <t xml:space="preserve">NewZealand&gt;Oceania</t>
   </si>
   <si>
-    <t xml:space="preserve">12/03/2020 15:49:52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">North</t>
-  </si>
-  <si>
-    <t xml:space="preserve">England&gt;North</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31/01/2020 15:14:36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NewZealand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12/03/2020 15:49:36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">News</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Japan&gt;Tokiyo&gt;News</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03/02/2020 10:56:53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mangalore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">India&gt;South&gt;Mangalore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02/10/2019 09:51:50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">London</t>
-  </si>
-  <si>
-    <t xml:space="preserve">England&gt;North&gt;London</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31/01/2020 15:14:53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Philli&gt;Java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31/01/2020 15:11:44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Japan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09/01/2020 15:30:57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IT Department</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NewZealand&gt;Oceania&gt;IT Department</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12/03/2020 15:50:07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">India</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31/01/2020 12:45:55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dell&gt;HP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05/02/2020 15:42:36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Houggang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Singapore&gt;Houggang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01/10/2019 16:55:03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">England</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31/01/2020 15:14:06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Development</t>
-  </si>
-  <si>
-    <t xml:space="preserve">England&gt;North&gt;London&gt;Development</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31/01/2020 15:15:03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05/02/2020 14:43:27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amereica&gt;Washing Tone&gt;Branch&gt;Coding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31/01/2020 15:15:58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CallCentre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Singapore&gt;SingtelTDM&gt;CallCentre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31/01/2020 15:15:23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Branch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amereica&gt;Washing Tone&gt;Branch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31/01/2020 15:15:52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bangalore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">India&gt;South&gt;Bangalore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01/10/2019 17:00:10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amereica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31/01/2020 15:15:37</t>
+    <t xml:space="preserve">27/04/2020 17:54:24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">India&gt;DivisionIndia2&gt;Dep1&gt;T1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22/07/2019 15:58:49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">India&gt;DivisionIndia2&gt;Dep2&gt;T2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22/07/2019 15:59:14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Team1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">India&gt;DivisionIndia1&gt;DepIndia1&gt;Team1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22/07/2019 15:51:51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Team11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">India&gt;DivisionIndia1&gt;DepIndia1&gt;Team11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22/07/2019 15:57:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Team2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">India&gt;DivisionIndia1&gt;DepIndia2&gt;Team2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22/07/2019 15:54:46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Team22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">India&gt;DivisionIndia1&gt;DepIndia2&gt;Team22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22/07/2019 15:55:59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TeamAksh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TH&gt;Digi&gt;accounts&gt;TeamAksh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">indiatetherfi\akshith</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10/12/2018 18:58:07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TESTAUDIT&gt;Test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17/09/2018 15:39:41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Team</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NewZealand&gt;Oceania&gt;IT Department&gt;Test Team</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27/04/2020 17:55:24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TESTAUDIT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17/09/2018 15:38:52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29/08/2018 15:46:24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TH&gt;Digi&gt;accounts&gt;trere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IndiaTetherfi\akshith</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14/08/2018 18:48:54</t>
   </si>
 </sst>
 </file>
@@ -390,9 +411,9 @@
   <sheetFormatPr x14ac:dyDescent="0.25" customHeight="1" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" customWidth="1" width="15.714285714285714" bestFit="1"/>
-    <col min="2" max="2" customWidth="1" width="13.714285714285714" bestFit="1"/>
+    <col min="2" max="2" customWidth="1" width="14.714285714285714" bestFit="1"/>
     <col min="3" max="3" customWidth="1" width="42.714285714285715" bestFit="1"/>
-    <col min="4" max="4" customWidth="1" width="24.714285714285715" bestFit="1"/>
+    <col min="4" max="4" customWidth="1" width="27.714285714285715" bestFit="1"/>
     <col min="5" max="5" customWidth="1" width="19.714285714285715" bestFit="1"/>
   </cols>
   <sheetData>
@@ -432,67 +453,67 @@
     </row>
     <row r="3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
         <v>18</v>
       </c>
       <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>23</v>
@@ -500,24 +521,24 @@
     </row>
     <row r="7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
         <v>24</v>
-      </c>
-      <c r="B7" t="s">
-        <v>25</v>
       </c>
       <c r="C7" t="s">
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
         <v>28</v>
@@ -526,7 +547,7 @@
         <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>30</v>
@@ -534,7 +555,7 @@
     </row>
     <row r="9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
         <v>31</v>
@@ -543,7 +564,7 @@
         <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>33</v>
@@ -551,7 +572,7 @@
     </row>
     <row r="10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B10" t="s">
         <v>34</v>
@@ -560,7 +581,7 @@
         <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>36</v>
@@ -568,7 +589,7 @@
     </row>
     <row r="11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B11" t="s">
         <v>37</v>
@@ -577,7 +598,7 @@
         <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>39</v>
@@ -585,376 +606,376 @@
     </row>
     <row r="12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D12" t="s">
         <v>8</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D13" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D14" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D15" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D16" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C17" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D17" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C18" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D18" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C19" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D19" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C20" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D20" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="B21" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C21" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D21" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C22" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D22" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B23" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C23" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D23" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C24" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D24" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B25" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C25" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D25" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B26" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C26" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D26" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B27" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C27" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D27" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B28" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C28" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="D28" t="s">
-        <v>8</v>
+        <v>90</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" t="s">
+        <v>92</v>
+      </c>
+      <c r="C29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D29" t="s">
         <v>13</v>
       </c>
-      <c r="B29" t="s">
-        <v>85</v>
-      </c>
-      <c r="C29" t="s">
-        <v>86</v>
-      </c>
-      <c r="D29" t="s">
-        <v>8</v>
-      </c>
       <c r="E29" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="B30" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C30" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="D30" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B31" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="C31" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="D31" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B32" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="C32" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D32" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B33" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C33" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="D33" t="s">
-        <v>8</v>
+        <v>104</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/ocms/src/test/resources/DownloadedFiles/Organizational Structure (2).xlsx
+++ b/ocms/src/test/resources/DownloadedFiles/Organizational Structure (2).xlsx
@@ -103,7 +103,7 @@
     <t xml:space="preserve">NewZealand&gt;Oceania&gt;IT Department</t>
   </si>
   <si>
-    <t xml:space="preserve">02/06/2021 15:22:10</t>
+    <t xml:space="preserve">03/06/2021 20:33:59</t>
   </si>
   <si>
     <t xml:space="preserve">London</t>
@@ -118,7 +118,7 @@
     <t xml:space="preserve">NewZealand</t>
   </si>
   <si>
-    <t xml:space="preserve">02/06/2021 15:21:39</t>
+    <t xml:space="preserve">03/06/2021 20:33:24</t>
   </si>
   <si>
     <t xml:space="preserve">Oceania</t>
@@ -127,7 +127,7 @@
     <t xml:space="preserve">NewZealand&gt;Oceania</t>
   </si>
   <si>
-    <t xml:space="preserve">02/06/2021 15:21:54</t>
+    <t xml:space="preserve">03/06/2021 20:33:41</t>
   </si>
   <si>
     <t xml:space="preserve">ProductQA</t>

--- a/ocms/src/test/resources/DownloadedFiles/Organizational Structure (2).xlsx
+++ b/ocms/src/test/resources/DownloadedFiles/Organizational Structure (2).xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1245" uniqueCount="732">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="737">
   <si>
     <t xml:space="preserve">Level Hierarchy</t>
   </si>
@@ -1702,6 +1702,15 @@
     <t xml:space="preserve">01/10/2019 16:54:39</t>
   </si>
   <si>
+    <t xml:space="preserve">Russia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QATETHERFI\Administrator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03/08/2021 19:15:58</t>
+  </si>
+  <si>
     <t xml:space="preserve">ProjectQA</t>
   </si>
   <si>
@@ -1726,10 +1735,7 @@
     <t xml:space="preserve">NewZealand&gt;Oceania</t>
   </si>
   <si>
-    <t xml:space="preserve">QATETHERFI\Administrator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29/07/2021 01:08:46</t>
+    <t xml:space="preserve">09/08/2021 15:37:12</t>
   </si>
   <si>
     <t xml:space="preserve">North</t>
@@ -1744,7 +1750,7 @@
     <t xml:space="preserve">NewZealand</t>
   </si>
   <si>
-    <t xml:space="preserve">29/07/2021 01:08:28</t>
+    <t xml:space="preserve">09/08/2021 15:36:55</t>
   </si>
   <si>
     <t xml:space="preserve">News</t>
@@ -1786,7 +1792,7 @@
     <t xml:space="preserve">NewZealand&gt;Oceania&gt;IT Department</t>
   </si>
   <si>
-    <t xml:space="preserve">29/07/2021 01:09:04</t>
+    <t xml:space="preserve">09/08/2021 15:37:31</t>
   </si>
   <si>
     <t xml:space="preserve">India</t>
@@ -2213,6 +2219,15 @@
   </si>
   <si>
     <t xml:space="preserve">16/06/2021 14:34:43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">America&gt;Washing Tone&gt;Branch&gt;Agent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03/08/2021 18:43:05</t>
   </si>
 </sst>
 </file>
@@ -2280,7 +2295,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E249"/>
+  <dimension ref="A1:E251"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane state="frozen" ySplit="1" topLeftCell="A2"/>
@@ -5442,16 +5457,16 @@
     </row>
     <row r="186" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B186" t="s">
         <v>561</v>
       </c>
       <c r="C186" t="s">
+        <v>561</v>
+      </c>
+      <c r="D186" t="s">
         <v>562</v>
-      </c>
-      <c r="D186" t="s">
-        <v>12</v>
       </c>
       <c r="E186" s="2" t="s">
         <v>563</v>
@@ -5476,7 +5491,7 @@
     </row>
     <row r="188" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B188" t="s">
         <v>567</v>
@@ -5485,10 +5500,10 @@
         <v>568</v>
       </c>
       <c r="D188" t="s">
+        <v>12</v>
+      </c>
+      <c r="E188" s="2" t="s">
         <v>569</v>
-      </c>
-      <c r="E188" s="2" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="189" x14ac:dyDescent="0.25">
@@ -5496,30 +5511,30 @@
         <v>5</v>
       </c>
       <c r="B189" t="s">
+        <v>570</v>
+      </c>
+      <c r="C189" t="s">
         <v>571</v>
       </c>
-      <c r="C189" t="s">
+      <c r="D189" t="s">
+        <v>8</v>
+      </c>
+      <c r="E189" s="2" t="s">
         <v>572</v>
-      </c>
-      <c r="D189" t="s">
-        <v>12</v>
-      </c>
-      <c r="E189" s="2" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="190" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="B190" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C190" t="s">
         <v>574</v>
       </c>
       <c r="D190" t="s">
-        <v>569</v>
+        <v>12</v>
       </c>
       <c r="E190" s="2" t="s">
         <v>575</v>
@@ -5527,50 +5542,50 @@
     </row>
     <row r="191" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B191" t="s">
         <v>576</v>
       </c>
       <c r="C191" t="s">
+        <v>576</v>
+      </c>
+      <c r="D191" t="s">
+        <v>8</v>
+      </c>
+      <c r="E191" s="2" t="s">
         <v>577</v>
-      </c>
-      <c r="D191" t="s">
-        <v>8</v>
-      </c>
-      <c r="E191" s="2" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="192" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B192" t="s">
+        <v>578</v>
+      </c>
+      <c r="C192" t="s">
         <v>579</v>
       </c>
-      <c r="C192" t="s">
+      <c r="D192" t="s">
+        <v>8</v>
+      </c>
+      <c r="E192" s="2" t="s">
         <v>580</v>
-      </c>
-      <c r="D192" t="s">
-        <v>12</v>
-      </c>
-      <c r="E192" s="2" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="193" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B193" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C193" t="s">
         <v>582</v>
       </c>
       <c r="D193" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E193" s="2" t="s">
         <v>583</v>
@@ -5578,19 +5593,19 @@
     </row>
     <row r="194" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B194" t="s">
         <v>584</v>
       </c>
       <c r="C194" t="s">
+        <v>584</v>
+      </c>
+      <c r="D194" t="s">
+        <v>8</v>
+      </c>
+      <c r="E194" s="2" t="s">
         <v>585</v>
-      </c>
-      <c r="D194" t="s">
-        <v>12</v>
-      </c>
-      <c r="E194" s="2" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="195" x14ac:dyDescent="0.25">
@@ -5598,30 +5613,30 @@
         <v>24</v>
       </c>
       <c r="B195" t="s">
+        <v>586</v>
+      </c>
+      <c r="C195" t="s">
         <v>587</v>
       </c>
-      <c r="C195" t="s">
+      <c r="D195" t="s">
+        <v>12</v>
+      </c>
+      <c r="E195" s="2" t="s">
         <v>588</v>
-      </c>
-      <c r="D195" t="s">
-        <v>569</v>
-      </c>
-      <c r="E195" s="2" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="196" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B196" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C196" t="s">
         <v>590</v>
       </c>
       <c r="D196" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E196" s="2" t="s">
         <v>591</v>
@@ -5629,36 +5644,36 @@
     </row>
     <row r="197" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B197" t="s">
         <v>592</v>
       </c>
       <c r="C197" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D197" t="s">
         <v>12</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="198" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="B198" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C198" t="s">
         <v>595</v>
       </c>
       <c r="D198" t="s">
+        <v>12</v>
+      </c>
+      <c r="E198" s="2" t="s">
         <v>596</v>
-      </c>
-      <c r="E198" s="2" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="199" x14ac:dyDescent="0.25">
@@ -5666,13 +5681,13 @@
         <v>28</v>
       </c>
       <c r="B199" t="s">
+        <v>597</v>
+      </c>
+      <c r="C199" t="s">
+        <v>597</v>
+      </c>
+      <c r="D199" t="s">
         <v>598</v>
-      </c>
-      <c r="C199" t="s">
-        <v>598</v>
-      </c>
-      <c r="D199" t="s">
-        <v>12</v>
       </c>
       <c r="E199" s="2" t="s">
         <v>599</v>
@@ -5680,19 +5695,19 @@
     </row>
     <row r="200" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B200" t="s">
         <v>600</v>
       </c>
       <c r="C200" t="s">
+        <v>600</v>
+      </c>
+      <c r="D200" t="s">
+        <v>12</v>
+      </c>
+      <c r="E200" s="2" t="s">
         <v>601</v>
-      </c>
-      <c r="D200" t="s">
-        <v>8</v>
-      </c>
-      <c r="E200" s="2" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="201" x14ac:dyDescent="0.25">
@@ -5700,16 +5715,16 @@
         <v>5</v>
       </c>
       <c r="B201" t="s">
+        <v>602</v>
+      </c>
+      <c r="C201" t="s">
         <v>603</v>
       </c>
-      <c r="C201" t="s">
+      <c r="D201" t="s">
+        <v>8</v>
+      </c>
+      <c r="E201" s="2" t="s">
         <v>604</v>
-      </c>
-      <c r="D201" t="s">
-        <v>8</v>
-      </c>
-      <c r="E201" s="2" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="202" x14ac:dyDescent="0.25">
@@ -5717,16 +5732,16 @@
         <v>5</v>
       </c>
       <c r="B202" t="s">
+        <v>605</v>
+      </c>
+      <c r="C202" t="s">
         <v>606</v>
       </c>
-      <c r="C202" t="s">
+      <c r="D202" t="s">
+        <v>8</v>
+      </c>
+      <c r="E202" s="2" t="s">
         <v>607</v>
-      </c>
-      <c r="D202" t="s">
-        <v>8</v>
-      </c>
-      <c r="E202" s="2" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="203" x14ac:dyDescent="0.25">
@@ -5734,16 +5749,16 @@
         <v>5</v>
       </c>
       <c r="B203" t="s">
+        <v>608</v>
+      </c>
+      <c r="C203" t="s">
         <v>609</v>
       </c>
-      <c r="C203" t="s">
+      <c r="D203" t="s">
+        <v>8</v>
+      </c>
+      <c r="E203" s="2" t="s">
         <v>610</v>
-      </c>
-      <c r="D203" t="s">
-        <v>8</v>
-      </c>
-      <c r="E203" s="2" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="204" x14ac:dyDescent="0.25">
@@ -5751,16 +5766,16 @@
         <v>5</v>
       </c>
       <c r="B204" t="s">
+        <v>611</v>
+      </c>
+      <c r="C204" t="s">
         <v>612</v>
       </c>
-      <c r="C204" t="s">
+      <c r="D204" t="s">
+        <v>8</v>
+      </c>
+      <c r="E204" s="2" t="s">
         <v>613</v>
-      </c>
-      <c r="D204" t="s">
-        <v>8</v>
-      </c>
-      <c r="E204" s="2" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="205" x14ac:dyDescent="0.25">
@@ -5768,16 +5783,16 @@
         <v>5</v>
       </c>
       <c r="B205" t="s">
+        <v>614</v>
+      </c>
+      <c r="C205" t="s">
         <v>615</v>
       </c>
-      <c r="C205" t="s">
+      <c r="D205" t="s">
+        <v>8</v>
+      </c>
+      <c r="E205" s="2" t="s">
         <v>616</v>
-      </c>
-      <c r="D205" t="s">
-        <v>8</v>
-      </c>
-      <c r="E205" s="2" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="206" x14ac:dyDescent="0.25">
@@ -5785,16 +5800,16 @@
         <v>5</v>
       </c>
       <c r="B206" t="s">
+        <v>617</v>
+      </c>
+      <c r="C206" t="s">
         <v>618</v>
       </c>
-      <c r="C206" t="s">
+      <c r="D206" t="s">
+        <v>8</v>
+      </c>
+      <c r="E206" s="2" t="s">
         <v>619</v>
-      </c>
-      <c r="D206" t="s">
-        <v>8</v>
-      </c>
-      <c r="E206" s="2" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="207" x14ac:dyDescent="0.25">
@@ -5802,16 +5817,16 @@
         <v>5</v>
       </c>
       <c r="B207" t="s">
+        <v>620</v>
+      </c>
+      <c r="C207" t="s">
         <v>621</v>
       </c>
-      <c r="C207" t="s">
+      <c r="D207" t="s">
+        <v>8</v>
+      </c>
+      <c r="E207" s="2" t="s">
         <v>622</v>
-      </c>
-      <c r="D207" t="s">
-        <v>8</v>
-      </c>
-      <c r="E207" s="2" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="208" x14ac:dyDescent="0.25">
@@ -5819,16 +5834,16 @@
         <v>5</v>
       </c>
       <c r="B208" t="s">
+        <v>623</v>
+      </c>
+      <c r="C208" t="s">
         <v>624</v>
       </c>
-      <c r="C208" t="s">
+      <c r="D208" t="s">
+        <v>8</v>
+      </c>
+      <c r="E208" s="2" t="s">
         <v>625</v>
-      </c>
-      <c r="D208" t="s">
-        <v>8</v>
-      </c>
-      <c r="E208" s="2" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="209" x14ac:dyDescent="0.25">
@@ -5836,16 +5851,16 @@
         <v>5</v>
       </c>
       <c r="B209" t="s">
+        <v>626</v>
+      </c>
+      <c r="C209" t="s">
         <v>627</v>
       </c>
-      <c r="C209" t="s">
+      <c r="D209" t="s">
+        <v>8</v>
+      </c>
+      <c r="E209" s="2" t="s">
         <v>628</v>
-      </c>
-      <c r="D209" t="s">
-        <v>8</v>
-      </c>
-      <c r="E209" s="2" t="s">
-        <v>629</v>
       </c>
     </row>
     <row r="210" x14ac:dyDescent="0.25">
@@ -5853,16 +5868,16 @@
         <v>5</v>
       </c>
       <c r="B210" t="s">
+        <v>629</v>
+      </c>
+      <c r="C210" t="s">
         <v>630</v>
       </c>
-      <c r="C210" t="s">
+      <c r="D210" t="s">
+        <v>8</v>
+      </c>
+      <c r="E210" s="2" t="s">
         <v>631</v>
-      </c>
-      <c r="D210" t="s">
-        <v>8</v>
-      </c>
-      <c r="E210" s="2" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="211" x14ac:dyDescent="0.25">
@@ -5870,50 +5885,50 @@
         <v>5</v>
       </c>
       <c r="B211" t="s">
+        <v>632</v>
+      </c>
+      <c r="C211" t="s">
         <v>633</v>
       </c>
-      <c r="C211" t="s">
+      <c r="D211" t="s">
+        <v>8</v>
+      </c>
+      <c r="E211" s="2" t="s">
         <v>634</v>
-      </c>
-      <c r="D211" t="s">
-        <v>8</v>
-      </c>
-      <c r="E211" s="2" t="s">
-        <v>635</v>
       </c>
     </row>
     <row r="212" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B212" t="s">
+        <v>635</v>
+      </c>
+      <c r="C212" t="s">
         <v>636</v>
       </c>
-      <c r="C212" t="s">
+      <c r="D212" t="s">
+        <v>8</v>
+      </c>
+      <c r="E212" s="2" t="s">
         <v>637</v>
-      </c>
-      <c r="D212" t="s">
-        <v>12</v>
-      </c>
-      <c r="E212" s="2" t="s">
-        <v>638</v>
       </c>
     </row>
     <row r="213" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B213" t="s">
+        <v>638</v>
+      </c>
+      <c r="C213" t="s">
         <v>639</v>
       </c>
-      <c r="C213" t="s">
+      <c r="D213" t="s">
+        <v>12</v>
+      </c>
+      <c r="E213" s="2" t="s">
         <v>640</v>
-      </c>
-      <c r="D213" t="s">
-        <v>8</v>
-      </c>
-      <c r="E213" s="2" t="s">
-        <v>641</v>
       </c>
     </row>
     <row r="214" x14ac:dyDescent="0.25">
@@ -5921,16 +5936,16 @@
         <v>24</v>
       </c>
       <c r="B214" t="s">
+        <v>641</v>
+      </c>
+      <c r="C214" t="s">
         <v>642</v>
       </c>
-      <c r="C214" t="s">
+      <c r="D214" t="s">
+        <v>8</v>
+      </c>
+      <c r="E214" s="2" t="s">
         <v>643</v>
-      </c>
-      <c r="D214" t="s">
-        <v>8</v>
-      </c>
-      <c r="E214" s="2" t="s">
-        <v>644</v>
       </c>
     </row>
     <row r="215" x14ac:dyDescent="0.25">
@@ -5938,16 +5953,16 @@
         <v>24</v>
       </c>
       <c r="B215" t="s">
+        <v>644</v>
+      </c>
+      <c r="C215" t="s">
         <v>645</v>
       </c>
-      <c r="C215" t="s">
+      <c r="D215" t="s">
+        <v>8</v>
+      </c>
+      <c r="E215" s="2" t="s">
         <v>646</v>
-      </c>
-      <c r="D215" t="s">
-        <v>8</v>
-      </c>
-      <c r="E215" s="2" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="216" x14ac:dyDescent="0.25">
@@ -5955,16 +5970,16 @@
         <v>24</v>
       </c>
       <c r="B216" t="s">
+        <v>647</v>
+      </c>
+      <c r="C216" t="s">
         <v>648</v>
       </c>
-      <c r="C216" t="s">
+      <c r="D216" t="s">
+        <v>8</v>
+      </c>
+      <c r="E216" s="2" t="s">
         <v>649</v>
-      </c>
-      <c r="D216" t="s">
-        <v>8</v>
-      </c>
-      <c r="E216" s="2" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="217" x14ac:dyDescent="0.25">
@@ -5972,16 +5987,16 @@
         <v>24</v>
       </c>
       <c r="B217" t="s">
+        <v>650</v>
+      </c>
+      <c r="C217" t="s">
         <v>651</v>
       </c>
-      <c r="C217" t="s">
+      <c r="D217" t="s">
+        <v>8</v>
+      </c>
+      <c r="E217" s="2" t="s">
         <v>652</v>
-      </c>
-      <c r="D217" t="s">
-        <v>8</v>
-      </c>
-      <c r="E217" s="2" t="s">
-        <v>653</v>
       </c>
     </row>
     <row r="218" x14ac:dyDescent="0.25">
@@ -5989,16 +6004,16 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
+        <v>653</v>
+      </c>
+      <c r="C218" t="s">
         <v>654</v>
       </c>
-      <c r="C218" t="s">
+      <c r="D218" t="s">
+        <v>8</v>
+      </c>
+      <c r="E218" s="2" t="s">
         <v>655</v>
-      </c>
-      <c r="D218" t="s">
-        <v>8</v>
-      </c>
-      <c r="E218" s="2" t="s">
-        <v>656</v>
       </c>
     </row>
     <row r="219" x14ac:dyDescent="0.25">
@@ -6006,16 +6021,16 @@
         <v>24</v>
       </c>
       <c r="B219" t="s">
+        <v>656</v>
+      </c>
+      <c r="C219" t="s">
         <v>657</v>
       </c>
-      <c r="C219" t="s">
+      <c r="D219" t="s">
+        <v>8</v>
+      </c>
+      <c r="E219" s="2" t="s">
         <v>658</v>
-      </c>
-      <c r="D219" t="s">
-        <v>8</v>
-      </c>
-      <c r="E219" s="2" t="s">
-        <v>659</v>
       </c>
     </row>
     <row r="220" x14ac:dyDescent="0.25">
@@ -6023,16 +6038,16 @@
         <v>24</v>
       </c>
       <c r="B220" t="s">
+        <v>659</v>
+      </c>
+      <c r="C220" t="s">
         <v>660</v>
       </c>
-      <c r="C220" t="s">
+      <c r="D220" t="s">
+        <v>8</v>
+      </c>
+      <c r="E220" s="2" t="s">
         <v>661</v>
-      </c>
-      <c r="D220" t="s">
-        <v>8</v>
-      </c>
-      <c r="E220" s="2" t="s">
-        <v>662</v>
       </c>
     </row>
     <row r="221" x14ac:dyDescent="0.25">
@@ -6040,16 +6055,16 @@
         <v>24</v>
       </c>
       <c r="B221" t="s">
+        <v>662</v>
+      </c>
+      <c r="C221" t="s">
         <v>663</v>
       </c>
-      <c r="C221" t="s">
+      <c r="D221" t="s">
+        <v>8</v>
+      </c>
+      <c r="E221" s="2" t="s">
         <v>664</v>
-      </c>
-      <c r="D221" t="s">
-        <v>8</v>
-      </c>
-      <c r="E221" s="2" t="s">
-        <v>665</v>
       </c>
     </row>
     <row r="222" x14ac:dyDescent="0.25">
@@ -6057,33 +6072,33 @@
         <v>24</v>
       </c>
       <c r="B222" t="s">
+        <v>665</v>
+      </c>
+      <c r="C222" t="s">
         <v>666</v>
       </c>
-      <c r="C222" t="s">
+      <c r="D222" t="s">
+        <v>8</v>
+      </c>
+      <c r="E222" s="2" t="s">
         <v>667</v>
-      </c>
-      <c r="D222" t="s">
-        <v>8</v>
-      </c>
-      <c r="E222" s="2" t="s">
-        <v>668</v>
       </c>
     </row>
     <row r="223" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B223" t="s">
+        <v>668</v>
+      </c>
+      <c r="C223" t="s">
         <v>669</v>
       </c>
-      <c r="C223" t="s">
+      <c r="D223" t="s">
+        <v>8</v>
+      </c>
+      <c r="E223" s="2" t="s">
         <v>670</v>
-      </c>
-      <c r="D223" t="s">
-        <v>8</v>
-      </c>
-      <c r="E223" s="2" t="s">
-        <v>671</v>
       </c>
     </row>
     <row r="224" x14ac:dyDescent="0.25">
@@ -6091,33 +6106,33 @@
         <v>14</v>
       </c>
       <c r="B224" t="s">
+        <v>671</v>
+      </c>
+      <c r="C224" t="s">
         <v>672</v>
       </c>
-      <c r="C224" t="s">
+      <c r="D224" t="s">
+        <v>8</v>
+      </c>
+      <c r="E224" s="2" t="s">
         <v>673</v>
-      </c>
-      <c r="D224" t="s">
-        <v>8</v>
-      </c>
-      <c r="E224" s="2" t="s">
-        <v>674</v>
       </c>
     </row>
     <row r="225" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B225" t="s">
+        <v>674</v>
+      </c>
+      <c r="C225" t="s">
         <v>675</v>
       </c>
-      <c r="C225" t="s">
+      <c r="D225" t="s">
+        <v>8</v>
+      </c>
+      <c r="E225" s="2" t="s">
         <v>676</v>
-      </c>
-      <c r="D225" t="s">
-        <v>8</v>
-      </c>
-      <c r="E225" s="2" t="s">
-        <v>677</v>
       </c>
     </row>
     <row r="226" x14ac:dyDescent="0.25">
@@ -6125,24 +6140,24 @@
         <v>24</v>
       </c>
       <c r="B226" t="s">
+        <v>677</v>
+      </c>
+      <c r="C226" t="s">
         <v>678</v>
       </c>
-      <c r="C226" t="s">
+      <c r="D226" t="s">
+        <v>8</v>
+      </c>
+      <c r="E226" s="2" t="s">
         <v>679</v>
-      </c>
-      <c r="D226" t="s">
-        <v>8</v>
-      </c>
-      <c r="E226" s="2" t="s">
-        <v>680</v>
       </c>
     </row>
     <row r="227" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B227" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C227" t="s">
         <v>681</v>
@@ -6394,36 +6409,36 @@
     </row>
     <row r="242" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B242" t="s">
         <v>711</v>
       </c>
       <c r="C242" t="s">
+        <v>711</v>
+      </c>
+      <c r="D242" t="s">
+        <v>8</v>
+      </c>
+      <c r="E242" s="2" t="s">
         <v>712</v>
-      </c>
-      <c r="D242" t="s">
-        <v>12</v>
-      </c>
-      <c r="E242" s="2" t="s">
-        <v>713</v>
       </c>
     </row>
     <row r="243" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B243" t="s">
+        <v>713</v>
+      </c>
+      <c r="C243" t="s">
         <v>714</v>
       </c>
-      <c r="C243" t="s">
+      <c r="D243" t="s">
+        <v>12</v>
+      </c>
+      <c r="E243" s="2" t="s">
         <v>715</v>
-      </c>
-      <c r="D243" t="s">
-        <v>8</v>
-      </c>
-      <c r="E243" s="2" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="244" x14ac:dyDescent="0.25">
@@ -6431,16 +6446,16 @@
         <v>24</v>
       </c>
       <c r="B244" t="s">
+        <v>716</v>
+      </c>
+      <c r="C244" t="s">
         <v>717</v>
       </c>
-      <c r="C244" t="s">
+      <c r="D244" t="s">
+        <v>8</v>
+      </c>
+      <c r="E244" s="2" t="s">
         <v>718</v>
-      </c>
-      <c r="D244" t="s">
-        <v>12</v>
-      </c>
-      <c r="E244" s="2" t="s">
-        <v>719</v>
       </c>
     </row>
     <row r="245" x14ac:dyDescent="0.25">
@@ -6448,30 +6463,30 @@
         <v>24</v>
       </c>
       <c r="B245" t="s">
+        <v>719</v>
+      </c>
+      <c r="C245" t="s">
         <v>720</v>
-      </c>
-      <c r="C245" t="s">
-        <v>721</v>
       </c>
       <c r="D245" t="s">
         <v>12</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="246" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B246" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C246" t="s">
         <v>723</v>
       </c>
       <c r="D246" t="s">
-        <v>596</v>
+        <v>12</v>
       </c>
       <c r="E246" s="2" t="s">
         <v>724</v>
@@ -6479,33 +6494,33 @@
     </row>
     <row r="247" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B247" t="s">
         <v>725</v>
       </c>
       <c r="C247" t="s">
+        <v>725</v>
+      </c>
+      <c r="D247" t="s">
+        <v>598</v>
+      </c>
+      <c r="E247" s="2" t="s">
         <v>726</v>
-      </c>
-      <c r="D247" t="s">
-        <v>12</v>
-      </c>
-      <c r="E247" s="2" t="s">
-        <v>727</v>
       </c>
     </row>
     <row r="248" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B248" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C248" t="s">
         <v>728</v>
       </c>
       <c r="D248" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E248" s="2" t="s">
         <v>729</v>
@@ -6526,6 +6541,40 @@
       </c>
       <c r="E249" s="2" t="s">
         <v>731</v>
+      </c>
+    </row>
+    <row r="250" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>28</v>
+      </c>
+      <c r="B250" t="s">
+        <v>732</v>
+      </c>
+      <c r="C250" t="s">
+        <v>732</v>
+      </c>
+      <c r="D250" t="s">
+        <v>8</v>
+      </c>
+      <c r="E250" s="2" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="251" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>14</v>
+      </c>
+      <c r="B251" t="s">
+        <v>734</v>
+      </c>
+      <c r="C251" t="s">
+        <v>735</v>
+      </c>
+      <c r="D251" t="s">
+        <v>562</v>
+      </c>
+      <c r="E251" s="2" t="s">
+        <v>736</v>
       </c>
     </row>
   </sheetData>
